--- a/scripts/Monitoramento/outputs/Expansão MS/0 - Monitoramento Form 1, 2 e 3.xlsx
+++ b/scripts/Monitoramento/outputs/Expansão MS/0 - Monitoramento Form 1, 2 e 3.xlsx
@@ -8519,12 +8519,16 @@
           <t>Andressa da Silva</t>
         </is>
       </c>
-      <c r="E13" s="44" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F13" s="37" t="n"/>
+      <c r="E13" s="38" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F13" s="37" t="inlineStr">
+        <is>
+          <t>09/12/2025</t>
+        </is>
+      </c>
       <c r="G13" s="39" t="inlineStr">
         <is>
           <t>Não</t>
@@ -10563,12 +10567,16 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B13&amp;C13, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B13&amp;C13, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E13" s="44" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F13" s="37" t="n"/>
+      <c r="E13" s="38" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F13" s="37" t="inlineStr">
+        <is>
+          <t>10/12/2025</t>
+        </is>
+      </c>
       <c r="G13" s="47" t="inlineStr">
         <is>
           <t>Não</t>
@@ -11047,12 +11055,16 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B25&amp;C25, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B25&amp;C25, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E25" s="44" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F25" s="37" t="n"/>
+      <c r="E25" s="38" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F25" s="37" t="inlineStr">
+        <is>
+          <t>10/12/2025</t>
+        </is>
+      </c>
       <c r="G25" s="47" t="inlineStr">
         <is>
           <t>Não</t>
@@ -12585,12 +12597,16 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B13&amp;C13, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B13&amp;C13, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E13" s="44" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F13" s="37" t="n"/>
+      <c r="E13" s="38" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F13" s="37" t="inlineStr">
+        <is>
+          <t>10/12/2025</t>
+        </is>
+      </c>
       <c r="G13" s="47" t="inlineStr">
         <is>
           <t>Não</t>
@@ -13713,14 +13729,14 @@
         <f>IFERROR(IF(INDEX('Form 1 - Município'!D2:D500, MATCH(B41&amp;C41, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))="", "", INDEX('Form 1 - Município'!D2:D500, MATCH(B41&amp;C41, INDEX('Form 1 - Município'!B2:B500&amp;'Form 1 - Município'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E41" s="38" t="inlineStr">
-        <is>
-          <t>Enviado</t>
+      <c r="E41" s="48" t="inlineStr">
+        <is>
+          <t>Duplicado</t>
         </is>
       </c>
       <c r="F41" s="37" t="inlineStr">
         <is>
-          <t>07/10/2025</t>
+          <t>07/10/2025, 09/12/2025</t>
         </is>
       </c>
       <c r="G41" s="47" t="inlineStr">

--- a/scripts/Monitoramento/outputs/Expansão MS/0 - Monitoramento Form 1, 2 e 3.xlsx
+++ b/scripts/Monitoramento/outputs/Expansão MS/0 - Monitoramento Form 1, 2 e 3.xlsx
@@ -248,14 +248,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF6400"/>
-        <bgColor rgb="FFFF6400"/>
+        <fgColor rgb="0066FF66"/>
+        <bgColor rgb="0066FF66"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0066FF66"/>
-        <bgColor rgb="0066FF66"/>
+        <fgColor rgb="FFFF6400"/>
+        <bgColor rgb="FFFF6400"/>
       </patternFill>
     </fill>
     <fill>
@@ -601,7 +601,7 @@
     <xf numFmtId="0" fontId="13" fillId="36" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
